--- a/artfynd/A 16776-2019.xlsx
+++ b/artfynd/A 16776-2019.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80984949</v>
+        <v>80984971</v>
       </c>
       <c r="B3" t="n">
-        <v>56395</v>
+        <v>89780</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>4217</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>823033.1158475638</v>
+        <v>822333.2752310387</v>
       </c>
       <c r="R3" t="n">
-        <v>7468549.905579755</v>
+        <v>7469328.171067456</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80984989</v>
+        <v>80984949</v>
       </c>
       <c r="B4" t="n">
-        <v>89952</v>
+        <v>56395</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>760</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>823861.2863281479</v>
+        <v>823033.1158475638</v>
       </c>
       <c r="R4" t="n">
-        <v>7468730.907248246</v>
+        <v>7468549.905579755</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2019-06-18</t>
+          <t>2019-06-19</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2019-06-18</t>
+          <t>2019-06-19</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80984988</v>
+        <v>80984989</v>
       </c>
       <c r="B5" t="n">
-        <v>56315</v>
+        <v>89952</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102110</v>
+        <v>760</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällvråk</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Buteo lagopus</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Pontoppidan, 1763)</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>822887.3464848427</v>
+        <v>823861.2863281479</v>
       </c>
       <c r="R5" t="n">
-        <v>7468694.206081202</v>
+        <v>7468730.907248246</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80984948</v>
+        <v>80984988</v>
       </c>
       <c r="B6" t="n">
-        <v>56395</v>
+        <v>56315</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>102110</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Fjällvråk</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Buteo lagopus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pontoppidan, 1763)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>823041.2461442947</v>
+        <v>822887.3464848427</v>
       </c>
       <c r="R6" t="n">
-        <v>7468541.086727832</v>
+        <v>7468694.206081202</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2019-06-19</t>
+          <t>2019-06-18</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2019-06-19</t>
+          <t>2019-06-18</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80984971</v>
+        <v>80984948</v>
       </c>
       <c r="B7" t="n">
-        <v>89780</v>
+        <v>56395</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4217</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>822333.2752310387</v>
+        <v>823041.2461442947</v>
       </c>
       <c r="R7" t="n">
-        <v>7469328.171067456</v>
+        <v>7468541.086727832</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
